--- a/Documentação/Planilhas/Dominio_SDS.xlsx
+++ b/Documentação/Planilhas/Dominio_SDS.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Dominios SDS " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dominios SDS '!$A$1:$F$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dominios SDS '!$A$1:$F$81</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="163">
   <si>
     <t>stg_cfop.dtsx</t>
   </si>
@@ -449,6 +449,63 @@
   </si>
   <si>
     <t>dbo.stg_sige_banco</t>
+  </si>
+  <si>
+    <t>ods_base_correio_locations.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.Base_Correio_Locations</t>
+  </si>
+  <si>
+    <t>dbo.base_correio_locations</t>
+  </si>
+  <si>
+    <t>ods_endereco.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.ods_endereco</t>
+  </si>
+  <si>
+    <t>ods_sige_clientes_pedidos.dtsx</t>
+  </si>
+  <si>
+    <t>ods_origin_orders.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.ods_origin_orders</t>
+  </si>
+  <si>
+    <t>dbo.ods_sige_detalhe_pedido</t>
+  </si>
+  <si>
+    <t>dbo.ods_sige_clientes_pedido</t>
+  </si>
+  <si>
+    <t>ods_terceiro_corporativo.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.ods_terceiro_corporativo</t>
+  </si>
+  <si>
+    <t>ods_unidade_negocio.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.ods_unidade_negocio</t>
+  </si>
+  <si>
+    <t>ods_campanha_b2b.dtsx</t>
+  </si>
+  <si>
+    <t>dbo. stg_sige_detalhe_pedido</t>
+  </si>
+  <si>
+    <t>com.ods_campanha_b2b</t>
+  </si>
+  <si>
+    <t>ods_contrato_b2b.dtsx</t>
+  </si>
+  <si>
+    <t>com.ods_contrato_b2b</t>
   </si>
 </sst>
 </file>
@@ -498,9 +555,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,10 +593,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F72" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F72"/>
-  <sortState ref="A2:F72">
-    <sortCondition ref="F2:F72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F81" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F81"/>
+  <sortState ref="A2:F81">
+    <sortCondition ref="A2:A81"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="Solution Origem"/>
@@ -837,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -875,1422 +933,1602 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E32" t="s">
         <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="E46" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E53" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E54" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="E55" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="E56" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E61" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>102</v>
-      </c>
-      <c r="B62" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>52</v>
-      </c>
-      <c r="E62" t="s">
-        <v>29</v>
-      </c>
-      <c r="F62" t="s">
-        <v>54</v>
+      <c r="A62" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>102</v>
-      </c>
-      <c r="B63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s">
-        <v>53</v>
-      </c>
-      <c r="E63" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" t="s">
-        <v>54</v>
+      <c r="A63" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>102</v>
+      <c r="A64" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
-      </c>
-      <c r="E64" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" t="s">
-        <v>65</v>
-      </c>
-      <c r="E65" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" t="s">
-        <v>66</v>
+      <c r="A65" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>101</v>
-      </c>
-      <c r="B66" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
-        <v>28</v>
-      </c>
-      <c r="E66" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" t="s">
-        <v>66</v>
+      <c r="A66" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>102</v>
-      </c>
-      <c r="B67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" t="s">
-        <v>73</v>
+      <c r="A67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>102</v>
-      </c>
-      <c r="B68" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" t="s">
-        <v>73</v>
+      <c r="A68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>102</v>
-      </c>
-      <c r="B69" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>51</v>
-      </c>
-      <c r="E69" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" t="s">
-        <v>73</v>
+      <c r="A69" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>102</v>
-      </c>
-      <c r="B70" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E70" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" t="s">
-        <v>73</v>
+      <c r="A70" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="E72" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>73</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>128</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" t="s">
+        <v>129</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Planilhas/Dominio_SDS.xlsx
+++ b/Documentação/Planilhas/Dominio_SDS.xlsx
@@ -10,14 +10,15 @@
     <sheet name="Dominios SDS " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dominios SDS '!$A$1:$F$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dominios SDS '!$A$1:$F$84</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="176">
   <si>
     <t>stg_cfop.dtsx</t>
   </si>
@@ -506,13 +507,52 @@
   </si>
   <si>
     <t>com.ods_contrato_b2b</t>
+  </si>
+  <si>
+    <t>Estoque Loja</t>
+  </si>
+  <si>
+    <t>stg_estoque_loja.dtsx</t>
+  </si>
+  <si>
+    <t>db_prd_</t>
+  </si>
+  <si>
+    <t>DTSX Destino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estoque </t>
+  </si>
+  <si>
+    <t>dbo.stg_loja_estoque_tipo</t>
+  </si>
+  <si>
+    <t>stg_estoque_loja_tipo.dtsx</t>
+  </si>
+  <si>
+    <t>ods_estoque_loja.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.ods_loja_estoque_tipo</t>
+  </si>
+  <si>
+    <t>ods_estoque_loja_tipo.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.dim_estoque_loja_tipo</t>
+  </si>
+  <si>
+    <t>dw_estoque_loja_tipo.dtsx</t>
+  </si>
+  <si>
+    <t>dw_estoque_loja.dtsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +566,13 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -555,10 +602,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,18 +641,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F81" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F81"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G84" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G84">
+    <filterColumn colId="6"/>
+  </autoFilter>
   <sortState ref="A2:F81">
     <sortCondition ref="A2:A81"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" name="Solution Origem"/>
     <tableColumn id="2" name="DTSX"/>
     <tableColumn id="3" name="Banco Origem"/>
     <tableColumn id="4" name="Tabela Origem"/>
     <tableColumn id="5" name="Banco Destino"/>
     <tableColumn id="6" name="Tabela Destino"/>
+    <tableColumn id="7" name="DTSX Destino"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -895,10 +946,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <pane xSplit="4" ySplit="16" topLeftCell="E77" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -909,9 +963,10 @@
     <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -930,8 +985,11 @@
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -951,7 +1009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -971,7 +1029,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -991,7 +1049,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -1011,7 +1069,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -1031,7 +1089,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -1051,7 +1109,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -1071,7 +1129,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -1091,7 +1149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -1111,7 +1169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -1131,7 +1189,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -1151,7 +1209,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -1171,7 +1229,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -1191,7 +1249,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -1211,7 +1269,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -2511,7 +2569,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>127</v>
       </c>
@@ -2529,6 +2587,75 @@
       </c>
       <c r="F81" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G83" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G84" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Planilhas/Dominio_SDS.xlsx
+++ b/Documentação/Planilhas/Dominio_SDS.xlsx
@@ -10,15 +10,14 @@
     <sheet name="Dominios SDS " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dominios SDS '!$A$1:$F$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dominios SDS '!$A$1:$F$89</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="194">
   <si>
     <t>stg_cfop.dtsx</t>
   </si>
@@ -546,6 +545,60 @@
   </si>
   <si>
     <t>dw_estoque_loja.dtsx</t>
+  </si>
+  <si>
+    <t>stg_sku_ruptura_vitrine.dtsx</t>
+  </si>
+  <si>
+    <t>Ruptura Vitrine</t>
+  </si>
+  <si>
+    <t>stg_ruptura.dtsx</t>
+  </si>
+  <si>
+    <t>LOJACORP</t>
+  </si>
+  <si>
+    <t>dbo. spETL_source_Sku</t>
+  </si>
+  <si>
+    <t>dbo.stg_corp_sku</t>
+  </si>
+  <si>
+    <t>stg_produto_ruptura_vitrine.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.stg_corp_product</t>
+  </si>
+  <si>
+    <t>dbo.spETL_source_Produto</t>
+  </si>
+  <si>
+    <t>dbo.stg_corp_categoria</t>
+  </si>
+  <si>
+    <t>stg_categoria_ruptura_vitrine.dtsx</t>
+  </si>
+  <si>
+    <t>stg_corp_kit</t>
+  </si>
+  <si>
+    <t>stg_kit_ruptura_vitrine.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.spETL_source_Categoria</t>
+  </si>
+  <si>
+    <t>dbo.spETL_source_SkuKit</t>
+  </si>
+  <si>
+    <t>stg_loja_product</t>
+  </si>
+  <si>
+    <t>stg_product_ruptura_vitrine.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.Produto</t>
   </si>
 </sst>
 </file>
@@ -641,8 +694,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G84" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G89" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G89">
     <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="A2:F81">
@@ -946,13 +999,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="16" topLeftCell="E77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -963,7 +1016,7 @@
     <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2656,6 +2709,121 @@
       </c>
       <c r="G84" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Planilhas/Dominio_SDS.xlsx
+++ b/Documentação/Planilhas/Dominio_SDS.xlsx
@@ -1005,7 +1005,7 @@
       <pane xSplit="4" ySplit="16" topLeftCell="E77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Documentação/Planilhas/Dominio_SDS.xlsx
+++ b/Documentação/Planilhas/Dominio_SDS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="195">
   <si>
     <t>stg_cfop.dtsx</t>
   </si>
@@ -599,6 +599,9 @@
   </si>
   <si>
     <t>dbo.Produto</t>
+  </si>
+  <si>
+    <t>CRIA PROCESSO DE PROCESSAMENTO E PARTICIONAMENTO DE SSAS</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1008,7 @@
       <pane xSplit="4" ySplit="16" topLeftCell="E77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2633,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="E81" t="s">
         <v>2</v>

--- a/Documentação/Planilhas/Dominio_SDS.xlsx
+++ b/Documentação/Planilhas/Dominio_SDS.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19980" windowHeight="7815"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19980" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dominios SDS " sheetId="1" r:id="rId1"/>
+    <sheet name="Dominios SDS 20140910" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dominios SDS '!$A$1:$F$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dominios SDS 20140910'!$A$1:$F$101</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="273">
   <si>
     <t>stg_cfop.dtsx</t>
   </si>
@@ -602,13 +604,247 @@
   </si>
   <si>
     <t>CRIA PROCESSO DE PROCESSAMENTO E PARTICIONAMENTO DE SSAS</t>
+  </si>
+  <si>
+    <t>CAP Departamento_LN</t>
+  </si>
+  <si>
+    <t>dbo.stg_cap_depto</t>
+  </si>
+  <si>
+    <t>ods_cap_depto.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.ods_titulo_documento</t>
+  </si>
+  <si>
+    <t>dw_cap_depto.dtsx</t>
+  </si>
+  <si>
+    <t>stg_contas_a_pagar.dtsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbo.stg_dom_cap_bco_parceiro </t>
+  </si>
+  <si>
+    <t>ln.ods_condicao_pagamento_ref</t>
+  </si>
+  <si>
+    <t>dim.ods_parceiro_cadastro</t>
+  </si>
+  <si>
+    <t>MIS_SHARED_DIMENSION</t>
+  </si>
+  <si>
+    <t>dim.ods_parceiro_endereco</t>
+  </si>
+  <si>
+    <t>ods_contas_a_pagar.dtsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fin.stg_sige_terceiro_banco</t>
+  </si>
+  <si>
+    <t>stg_contas_a_receber.dtsx</t>
+  </si>
+  <si>
+    <t>ods_contas_a_receber.dtsx</t>
+  </si>
+  <si>
+    <t>ln.ods_car_titulo</t>
+  </si>
+  <si>
+    <t>dim.ods_municipio</t>
+  </si>
+  <si>
+    <t>fin.stg_sige_titulo_receber_cliente</t>
+  </si>
+  <si>
+    <t>fin.ods.titulo_documento</t>
+  </si>
+  <si>
+    <t>dw_contas_a_receber.dtsx</t>
+  </si>
+  <si>
+    <t>fin.ods_unineg_titulo</t>
+  </si>
+  <si>
+    <t>MIS_DATA_WHAREHOUSE</t>
+  </si>
+  <si>
+    <t>fin.dim.unineg_titulo</t>
+  </si>
+  <si>
+    <t>fin.ods_situacao_titulo</t>
+  </si>
+  <si>
+    <t>fin.dim_situacao_titulo</t>
+  </si>
+  <si>
+    <t>fin.aux_unineg_documento_titulo</t>
+  </si>
+  <si>
+    <t>fin.dim_titulo_documento</t>
+  </si>
+  <si>
+    <t>fin.dim_titulo_cliente</t>
+  </si>
+  <si>
+    <t>stg_estoque.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.stg_dom_est_modalidade</t>
+  </si>
+  <si>
+    <t>stg_estabelecimento.dtsx</t>
+  </si>
+  <si>
+    <t>ln.stg_companhia_ref</t>
+  </si>
+  <si>
+    <t>dbo.dim_estabelecimento</t>
+  </si>
+  <si>
+    <t>ods_estoque.dtsx</t>
+  </si>
+  <si>
+    <t>dw_estoque.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.dim_estoque_modalidade</t>
+  </si>
+  <si>
+    <t>dbo.dim_estoque_tipo_bloqueio</t>
+  </si>
+  <si>
+    <t>dbo.ods_estoque_sige</t>
+  </si>
+  <si>
+    <t>dbo.dim_estoque_deposito</t>
+  </si>
+  <si>
+    <t>stg_purchase_open.dtsx</t>
+  </si>
+  <si>
+    <t>ods_purchase_open.dtsx</t>
+  </si>
+  <si>
+    <t>dw_purchase_open.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.dim_condicao_pagamento</t>
+  </si>
+  <si>
+    <t>dbo.dim_sige_fornecedor</t>
+  </si>
+  <si>
+    <t>dbo.dim_cfop</t>
+  </si>
+  <si>
+    <t>dbo.stg_dom_situacao_nf</t>
+  </si>
+  <si>
+    <t>dbo.dim_purchase_status</t>
+  </si>
+  <si>
+    <t>dbo.stg_dom_situacao_pedido</t>
+  </si>
+  <si>
+    <t>dbo.dim_purchase_order_status</t>
+  </si>
+  <si>
+    <t>stg_margin_approved.dtsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbo.stg_dom_meio_pagto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbo.stg_dom_bandeira_cartao </t>
+  </si>
+  <si>
+    <t>ods_margin_approved.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.ods_sige_pagamento_pedido</t>
+  </si>
+  <si>
+    <t>dbo.ods_meio_pagamento</t>
+  </si>
+  <si>
+    <t>dbo.stg_sige_detalhe_pedido</t>
+  </si>
+  <si>
+    <t>dbo.ods_canalvenda</t>
+  </si>
+  <si>
+    <t>dw_margin_approved.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.ods_date</t>
+  </si>
+  <si>
+    <t>dbo.dim_date</t>
+  </si>
+  <si>
+    <t>dbo.ods_fat_type</t>
+  </si>
+  <si>
+    <t>dbo.dim_type_fat</t>
+  </si>
+  <si>
+    <t>dbo.dim_origin</t>
+  </si>
+  <si>
+    <t>dbo.dim_meio_pagamento</t>
+  </si>
+  <si>
+    <t>dbo.ods_orders_status</t>
+  </si>
+  <si>
+    <t>dbo.dim_order_status</t>
+  </si>
+  <si>
+    <t>dbo.dim_endereco</t>
+  </si>
+  <si>
+    <t>dbo.dim_terceiro_corporativo</t>
+  </si>
+  <si>
+    <t>dbo.dim_canal_venda</t>
+  </si>
+  <si>
+    <t>dbo.ods_vendedor</t>
+  </si>
+  <si>
+    <t>dbo.dim_vendedor</t>
+  </si>
+  <si>
+    <t>dbo.ods_tipo_cliente</t>
+  </si>
+  <si>
+    <t>dbo.dim_tipo_cliente</t>
+  </si>
+  <si>
+    <t>dbo.ods_campanha</t>
+  </si>
+  <si>
+    <t>dbo.dim_campanha</t>
+  </si>
+  <si>
+    <t>dbo.dim_titulo_documento</t>
+  </si>
+  <si>
+    <t>SharedDimension_LN</t>
+  </si>
+  <si>
+    <t>ods_titulo_documento_cap_depto.dtsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,8 +867,23 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,6 +893,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,16 +915,159 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -697,8 +1097,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G89" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G89" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:G89">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Contas a Receber_LN"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="A2:F81">
@@ -712,6 +1117,26 @@
     <tableColumn id="5" name="Banco Destino"/>
     <tableColumn id="6" name="Tabela Destino"/>
     <tableColumn id="7" name="DTSX Destino"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:H101" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:H101">
+    <filterColumn colId="6"/>
+    <filterColumn colId="7"/>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Solution Origem" dataDxfId="9"/>
+    <tableColumn id="2" name="DTSX" dataDxfId="8"/>
+    <tableColumn id="3" name="Banco Origem" dataDxfId="7"/>
+    <tableColumn id="4" name="Tabela Origem" dataDxfId="6"/>
+    <tableColumn id="5" name="Banco Destino" dataDxfId="5"/>
+    <tableColumn id="6" name="Tabela Destino" dataDxfId="4"/>
+    <tableColumn id="7" name="DTSX Destino" dataDxfId="3"/>
+    <tableColumn id="8" name="SharedDimension_LN" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1004,11 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="16" topLeftCell="E77" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="D81" sqref="D81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="B28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1045,7 +1467,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -1065,7 +1487,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -1085,7 +1507,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -1105,7 +1527,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -1125,7 +1547,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -1145,7 +1567,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -1165,7 +1587,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -1185,7 +1607,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -1205,7 +1627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -1225,7 +1647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" hidden="1">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -1245,7 +1667,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -1265,7 +1687,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -1285,7 +1707,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -1305,7 +1727,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -1325,7 +1747,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -1345,7 +1767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -1365,7 +1787,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -1385,7 +1807,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -1825,7 +2247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41" t="s">
         <v>117</v>
       </c>
@@ -1845,7 +2267,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" hidden="1">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -1865,7 +2287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" t="s">
         <v>117</v>
       </c>
@@ -1885,7 +2307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" hidden="1">
       <c r="A44" t="s">
         <v>117</v>
       </c>
@@ -1905,7 +2327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" hidden="1">
       <c r="A45" t="s">
         <v>121</v>
       </c>
@@ -1925,7 +2347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -1945,7 +2367,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" hidden="1">
       <c r="A47" t="s">
         <v>121</v>
       </c>
@@ -1965,7 +2387,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" hidden="1">
       <c r="A48" t="s">
         <v>121</v>
       </c>
@@ -1985,7 +2407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" hidden="1">
       <c r="A49" t="s">
         <v>121</v>
       </c>
@@ -2005,7 +2427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50" t="s">
         <v>121</v>
       </c>
@@ -2025,7 +2447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" hidden="1">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -2045,7 +2467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" hidden="1">
       <c r="A52" t="s">
         <v>121</v>
       </c>
@@ -2065,7 +2487,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" hidden="1">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -2085,7 +2507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -2105,7 +2527,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" hidden="1">
       <c r="A55" t="s">
         <v>139</v>
       </c>
@@ -2125,7 +2547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" hidden="1">
       <c r="A56" t="s">
         <v>139</v>
       </c>
@@ -2145,7 +2567,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" hidden="1">
       <c r="A57" t="s">
         <v>139</v>
       </c>
@@ -2165,7 +2587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" t="s">
         <v>139</v>
       </c>
@@ -2185,7 +2607,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59" t="s">
         <v>139</v>
       </c>
@@ -2205,7 +2627,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60" t="s">
         <v>139</v>
       </c>
@@ -2225,7 +2647,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" hidden="1">
       <c r="A61" t="s">
         <v>139</v>
       </c>
@@ -2245,7 +2667,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" hidden="1">
       <c r="A62" s="2" t="s">
         <v>139</v>
       </c>
@@ -2265,7 +2687,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" hidden="1">
       <c r="A63" s="2" t="s">
         <v>139</v>
       </c>
@@ -2285,7 +2707,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" hidden="1">
       <c r="A64" s="2" t="s">
         <v>139</v>
       </c>
@@ -2305,7 +2727,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" hidden="1">
       <c r="A65" s="2" t="s">
         <v>139</v>
       </c>
@@ -2325,7 +2747,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" hidden="1">
       <c r="A66" s="2" t="s">
         <v>139</v>
       </c>
@@ -2345,7 +2767,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" hidden="1">
       <c r="A67" s="2" t="s">
         <v>139</v>
       </c>
@@ -2365,7 +2787,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" hidden="1">
       <c r="A68" s="2" t="s">
         <v>139</v>
       </c>
@@ -2385,7 +2807,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" hidden="1">
       <c r="A69" s="2" t="s">
         <v>139</v>
       </c>
@@ -2405,7 +2827,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" hidden="1">
       <c r="A70" s="2" t="s">
         <v>139</v>
       </c>
@@ -2425,7 +2847,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" hidden="1">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -2445,7 +2867,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" hidden="1">
       <c r="A72" t="s">
         <v>127</v>
       </c>
@@ -2465,7 +2887,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" hidden="1">
       <c r="A73" t="s">
         <v>127</v>
       </c>
@@ -2485,7 +2907,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" hidden="1">
       <c r="A74" t="s">
         <v>127</v>
       </c>
@@ -2505,7 +2927,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" hidden="1">
       <c r="A75" t="s">
         <v>127</v>
       </c>
@@ -2525,7 +2947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" hidden="1">
       <c r="A76" t="s">
         <v>127</v>
       </c>
@@ -2545,7 +2967,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" hidden="1">
       <c r="A77" t="s">
         <v>127</v>
       </c>
@@ -2565,7 +2987,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" hidden="1">
       <c r="A78" t="s">
         <v>127</v>
       </c>
@@ -2585,7 +3007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79" t="s">
         <v>127</v>
       </c>
@@ -2605,7 +3027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -2625,7 +3047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" hidden="1">
       <c r="A81" t="s">
         <v>127</v>
       </c>
@@ -2645,7 +3067,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" hidden="1">
       <c r="A82" s="2" t="s">
         <v>163</v>
       </c>
@@ -2668,7 +3090,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" hidden="1">
       <c r="A83" s="2" t="s">
         <v>163</v>
       </c>
@@ -2691,7 +3113,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" hidden="1">
       <c r="A84" s="2" t="s">
         <v>163</v>
       </c>
@@ -2714,7 +3136,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" hidden="1">
       <c r="A85" s="2" t="s">
         <v>177</v>
       </c>
@@ -2737,7 +3159,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" hidden="1">
       <c r="A86" s="2" t="s">
         <v>177</v>
       </c>
@@ -2760,7 +3182,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" hidden="1">
       <c r="A87" s="2" t="s">
         <v>177</v>
       </c>
@@ -2783,7 +3205,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" hidden="1">
       <c r="A88" s="2" t="s">
         <v>177</v>
       </c>
@@ -2806,7 +3228,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" hidden="1">
       <c r="A89" s="2" t="s">
         <v>177</v>
       </c>
@@ -2839,4 +3261,2088 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Documentação/Planilhas/Dominio_SDS.xlsx
+++ b/Documentação/Planilhas/Dominio_SDS.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dominios SDS '!$A$1:$F$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dominios SDS 20140910'!$A$1:$F$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dominios SDS 20140910'!$A$1:$F$98</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="288">
   <si>
     <t>stg_cfop.dtsx</t>
   </si>
@@ -642,9 +642,6 @@
     <t>ods_contas_a_pagar.dtsx</t>
   </si>
   <si>
-    <t xml:space="preserve"> fin.stg_sige_terceiro_banco</t>
-  </si>
-  <si>
     <t>stg_contas_a_receber.dtsx</t>
   </si>
   <si>
@@ -672,9 +669,6 @@
     <t>MIS_DATA_WHAREHOUSE</t>
   </si>
   <si>
-    <t>fin.dim.unineg_titulo</t>
-  </si>
-  <si>
     <t>fin.ods_situacao_titulo</t>
   </si>
   <si>
@@ -699,9 +693,6 @@
     <t>stg_estabelecimento.dtsx</t>
   </si>
   <si>
-    <t>ln.stg_companhia_ref</t>
-  </si>
-  <si>
     <t>dbo.dim_estabelecimento</t>
   </si>
   <si>
@@ -838,13 +829,67 @@
   </si>
   <si>
     <t>ods_titulo_documento_cap_depto.dtsx</t>
+  </si>
+  <si>
+    <t>dim_titulo_documento.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.ods_sige_titulo_modulo</t>
+  </si>
+  <si>
+    <t>dbo.ods_sige_titulo_documento</t>
+  </si>
+  <si>
+    <t>dbo.ods_sige_titulo_transacao</t>
+  </si>
+  <si>
+    <t>mis_ods_ods_condicao_pagamento.dtsx</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Colunas1</t>
+  </si>
+  <si>
+    <t>stg_sige_titulo_receber_cliente.dtsx</t>
+  </si>
+  <si>
+    <t>fin.dim_unineg_titulo</t>
+  </si>
+  <si>
+    <t>dim_unineg_titulo.dtsx</t>
+  </si>
+  <si>
+    <t>dim_situacao_titulo.dtsx</t>
+  </si>
+  <si>
+    <t>dim_titulo_docto.dtsx</t>
+  </si>
+  <si>
+    <t>dim_titulo_cliente.dtsx</t>
+  </si>
+  <si>
+    <t>ods_estabelecimento.dtsx</t>
+  </si>
+  <si>
+    <t>dim_estabelecimento.dtsx</t>
+  </si>
+  <si>
+    <t>dim_estoque_modalidade.dtsx</t>
+  </si>
+  <si>
+    <t>dim_estoque_tipo_bloqueio.dtsx</t>
+  </si>
+  <si>
+    <t>dim_estoque_deposito.dtsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -882,8 +927,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -902,6 +960,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -915,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -927,11 +991,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
       <font>
         <strike val="0"/>
@@ -946,29 +1015,6 @@
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1070,6 +1116,46 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1097,11 +1183,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G89" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G89" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:G89">
     <filterColumn colId="0">
       <filters>
-        <filter val="Contas a Receber_LN"/>
+        <filter val="Estoque_LN"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6"/>
@@ -1123,20 +1209,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:H101" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:H101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:I98" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I98">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Margin Approved_LN"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6"/>
     <filterColumn colId="7"/>
+    <filterColumn colId="8"/>
   </autoFilter>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Solution Origem" dataDxfId="9"/>
-    <tableColumn id="2" name="DTSX" dataDxfId="8"/>
-    <tableColumn id="3" name="Banco Origem" dataDxfId="7"/>
-    <tableColumn id="4" name="Tabela Origem" dataDxfId="6"/>
-    <tableColumn id="5" name="Banco Destino" dataDxfId="5"/>
-    <tableColumn id="6" name="Tabela Destino" dataDxfId="4"/>
-    <tableColumn id="7" name="DTSX Destino" dataDxfId="3"/>
-    <tableColumn id="8" name="SharedDimension_LN" dataDxfId="2"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Solution Origem" dataDxfId="8"/>
+    <tableColumn id="2" name="DTSX" dataDxfId="7"/>
+    <tableColumn id="3" name="Banco Origem" dataDxfId="6"/>
+    <tableColumn id="4" name="Tabela Origem" dataDxfId="5"/>
+    <tableColumn id="5" name="Banco Destino" dataDxfId="4"/>
+    <tableColumn id="6" name="Tabela Destino" dataDxfId="3"/>
+    <tableColumn id="7" name="DTSX Destino" dataDxfId="2"/>
+    <tableColumn id="8" name="SharedDimension_LN" dataDxfId="1"/>
+    <tableColumn id="9" name="Colunas1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1427,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="B28:E28"/>
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1483,7 +1576,7 @@
       <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1503,7 +1596,7 @@
       <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1523,7 +1616,7 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1543,7 +1636,7 @@
       <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1563,8 +1656,8 @@
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
-        <v>95</v>
+      <c r="F6" s="11" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:7" hidden="1">
@@ -1583,7 +1676,7 @@
       <c r="E7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1603,7 +1696,7 @@
       <c r="E8" t="s">
         <v>84</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1623,7 +1716,7 @@
       <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1643,7 +1736,7 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1663,7 +1756,7 @@
       <c r="E11" t="s">
         <v>84</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="13" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1683,7 +1776,7 @@
       <c r="E12" t="s">
         <v>84</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="13" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1703,7 +1796,7 @@
       <c r="E13" t="s">
         <v>84</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1723,7 +1816,7 @@
       <c r="E14" t="s">
         <v>84</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="13" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1743,7 +1836,7 @@
       <c r="E15" t="s">
         <v>84</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1763,7 +1856,7 @@
       <c r="E16" t="s">
         <v>29</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1783,7 +1876,7 @@
       <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1803,7 +1896,7 @@
       <c r="E18" t="s">
         <v>29</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1823,11 +1916,11 @@
       <c r="E19" t="s">
         <v>29</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -1843,11 +1936,11 @@
       <c r="E20" t="s">
         <v>84</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -1863,11 +1956,11 @@
       <c r="E21" t="s">
         <v>84</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -1883,11 +1976,11 @@
       <c r="E22" t="s">
         <v>84</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -1903,11 +1996,11 @@
       <c r="E23" t="s">
         <v>84</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -1923,11 +2016,11 @@
       <c r="E24" t="s">
         <v>84</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -1943,11 +2036,11 @@
       <c r="E25" t="s">
         <v>84</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -1963,11 +2056,11 @@
       <c r="E26" t="s">
         <v>84</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -1983,11 +2076,11 @@
       <c r="E27" t="s">
         <v>84</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -2003,11 +2096,11 @@
       <c r="E28" t="s">
         <v>84</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -2023,11 +2116,11 @@
       <c r="E29" t="s">
         <v>29</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -2043,11 +2136,11 @@
       <c r="E30" t="s">
         <v>29</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -2063,11 +2156,11 @@
       <c r="E31" t="s">
         <v>29</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -2083,11 +2176,11 @@
       <c r="E32" t="s">
         <v>29</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" hidden="1">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -2103,11 +2196,11 @@
       <c r="E33" t="s">
         <v>29</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -2123,11 +2216,11 @@
       <c r="E34" t="s">
         <v>29</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -2143,11 +2236,11 @@
       <c r="E35" t="s">
         <v>29</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" hidden="1">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -2163,11 +2256,11 @@
       <c r="E36" t="s">
         <v>29</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -2183,11 +2276,11 @@
       <c r="E37" t="s">
         <v>29</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" hidden="1">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -2203,11 +2296,11 @@
       <c r="E38" t="s">
         <v>29</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -2223,11 +2316,11 @@
       <c r="E39" t="s">
         <v>29</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -2243,7 +2336,7 @@
       <c r="E40" t="s">
         <v>29</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2327,7 +2420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>121</v>
       </c>
@@ -2343,11 +2436,11 @@
       <c r="E45" t="s">
         <v>2</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -2363,11 +2456,11 @@
       <c r="E46" t="s">
         <v>2</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>121</v>
       </c>
@@ -2383,11 +2476,11 @@
       <c r="E47" t="s">
         <v>2</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>121</v>
       </c>
@@ -2403,11 +2496,11 @@
       <c r="E48" t="s">
         <v>2</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>121</v>
       </c>
@@ -2423,11 +2516,11 @@
       <c r="E49" t="s">
         <v>2</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>121</v>
       </c>
@@ -2443,11 +2536,11 @@
       <c r="E50" t="s">
         <v>2</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -2463,11 +2556,11 @@
       <c r="E51" t="s">
         <v>2</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>121</v>
       </c>
@@ -2483,11 +2576,11 @@
       <c r="E52" t="s">
         <v>2</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -2503,7 +2596,7 @@
       <c r="E53" t="s">
         <v>2</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3250,6 +3343,9 @@
       <c r="G89" s="2" t="s">
         <v>192</v>
       </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="F90" s="13"/>
     </row>
   </sheetData>
   <sortState ref="A2:F72">
@@ -3265,26 +3361,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="5" customWidth="1"/>
     <col min="6" max="6" width="29.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>100</v>
       </c>
@@ -3307,10 +3403,13 @@
         <v>166</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1">
       <c r="A2" s="5" t="s">
         <v>195</v>
       </c>
@@ -3330,10 +3429,11 @@
         <v>198</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>269</v>
+      </c>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="6" t="s">
         <v>195</v>
       </c>
@@ -3350,11 +3450,15 @@
         <v>2</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="5" t="s">
         <v>101</v>
       </c>
@@ -3373,8 +3477,14 @@
       <c r="F4" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1">
       <c r="A5" s="5" t="s">
         <v>101</v>
       </c>
@@ -3393,8 +3503,14 @@
       <c r="F5" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="5" t="s">
         <v>101</v>
       </c>
@@ -3413,8 +3529,14 @@
       <c r="F6" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1">
       <c r="A7" s="5" t="s">
         <v>101</v>
       </c>
@@ -3433,8 +3555,14 @@
       <c r="F7" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1">
       <c r="A8" s="5" t="s">
         <v>101</v>
       </c>
@@ -3453,8 +3581,14 @@
       <c r="F8" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="5" t="s">
         <v>101</v>
       </c>
@@ -3473,8 +3607,14 @@
       <c r="F9" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="5" t="s">
         <v>101</v>
       </c>
@@ -3493,8 +3633,14 @@
       <c r="F10" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="5" t="s">
         <v>101</v>
       </c>
@@ -3513,8 +3659,14 @@
       <c r="F11" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="5" t="s">
         <v>101</v>
       </c>
@@ -3531,10 +3683,16 @@
         <v>2</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>271</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" s="5" t="s">
         <v>101</v>
       </c>
@@ -3551,10 +3709,16 @@
         <v>2</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>272</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="5" t="s">
         <v>101</v>
       </c>
@@ -3571,10 +3735,16 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>273</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="5" t="s">
         <v>101</v>
       </c>
@@ -3593,8 +3763,14 @@
       <c r="F15" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1">
       <c r="A16" s="5" t="s">
         <v>101</v>
       </c>
@@ -3605,7 +3781,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>84</v>
@@ -3613,33 +3789,46 @@
       <c r="F16" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>76</v>
+        <v>29</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>84</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>1</v>
@@ -3653,13 +3842,19 @@
       <c r="F18" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>1</v>
@@ -3673,13 +3868,19 @@
       <c r="F19" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>1</v>
@@ -3693,33 +3894,45 @@
       <c r="F20" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>84</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>211</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>204</v>
@@ -3731,15 +3944,21 @@
         <v>84</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>211</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>204</v>
@@ -3751,35 +3970,47 @@
         <v>84</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>211</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>204</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>84</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>211</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>29</v>
@@ -3793,13 +4024,19 @@
       <c r="F25" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="H25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>29</v>
@@ -3813,13 +4050,19 @@
       <c r="F26" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="H26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>29</v>
@@ -3831,15 +4074,21 @@
         <v>84</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>212</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>29</v>
@@ -3853,13 +4102,19 @@
       <c r="F28" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="H28" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>29</v>
@@ -3873,53 +4128,71 @@
       <c r="F29" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="H29" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="F30" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>278</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1">
       <c r="A31" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>217</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>84</v>
@@ -3928,38 +4201,50 @@
         <v>107</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>219</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>219</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>84</v>
@@ -3968,13 +4253,19 @@
         <v>104</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>220</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="7" t="s">
         <v>117</v>
       </c>
@@ -3993,8 +4284,9 @@
       <c r="F35" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36" s="7" t="s">
         <v>117</v>
       </c>
@@ -4013,8 +4305,9 @@
       <c r="F36" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37" s="7" t="s">
         <v>117</v>
       </c>
@@ -4033,8 +4326,9 @@
       <c r="F37" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" s="7" t="s">
         <v>117</v>
       </c>
@@ -4053,19 +4347,20 @@
       <c r="F38" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="I38" s="14"/>
+    </row>
+    <row r="39" spans="1:9" hidden="1">
       <c r="A39" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>2</v>
@@ -4073,13 +4368,19 @@
       <c r="F39" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="H39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1">
       <c r="A40" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>1</v>
@@ -4093,13 +4394,19 @@
       <c r="F40" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="H40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>1</v>
@@ -4113,33 +4420,45 @@
       <c r="F41" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="H41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>2</v>
@@ -4151,10 +4470,16 @@
         <v>2</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>224</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" s="5" t="s">
         <v>121</v>
       </c>
@@ -4162,19 +4487,25 @@
         <v>225</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>123</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1">
       <c r="A45" s="5" t="s">
         <v>121</v>
       </c>
@@ -4185,27 +4516,33 @@
         <v>2</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>125</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1">
       <c r="A46" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>2</v>
@@ -4213,128 +4550,164 @@
       <c r="F46" s="5" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="H46" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1">
       <c r="A47" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="H47" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1">
       <c r="A48" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="5" t="s">
-        <v>121</v>
+        <v>230</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>123</v>
+        <v>242</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="5" t="s">
-        <v>121</v>
+        <v>141</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>125</v>
+        <v>243</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="5" t="s">
-        <v>121</v>
+        <v>36</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="14"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>80</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I51" s="14"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>245</v>
+        <v>32</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I52" s="14"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="8" t="s">
         <v>139</v>
       </c>
@@ -4342,19 +4715,20 @@
         <v>244</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>146</v>
+      </c>
+      <c r="I53" s="14"/>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="8" t="s">
         <v>139</v>
       </c>
@@ -4362,19 +4736,20 @@
         <v>244</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>146</v>
+      </c>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="8" t="s">
         <v>139</v>
       </c>
@@ -4382,24 +4757,25 @@
         <v>244</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>148</v>
+      </c>
+      <c r="I55" s="14"/>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>2</v>
@@ -4410,342 +4786,359 @@
       <c r="E56" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="8" t="s">
+      <c r="F56" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56" s="14"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>146</v>
+        <v>245</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="8" t="s">
+      <c r="F57" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="I57" s="14"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="8" t="s">
+      <c r="F58" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="I58" s="14"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>246</v>
+      </c>
+      <c r="I59" s="14"/>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>246</v>
+      </c>
+      <c r="I60" s="14"/>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>151</v>
+      </c>
+      <c r="I61" s="14"/>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E62" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>248</v>
+      </c>
+      <c r="I62" s="14"/>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>157</v>
+      </c>
+      <c r="I63" s="14"/>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="E64" s="5" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>160</v>
+      </c>
+      <c r="I64" s="14"/>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>250</v>
-      </c>
       <c r="E65" s="5" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>162</v>
+      </c>
+      <c r="I65" s="14"/>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>251</v>
+      </c>
+      <c r="I66" s="14"/>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>253</v>
+      </c>
+      <c r="I67" s="14"/>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>250</v>
+      <c r="D68" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>254</v>
+      </c>
+      <c r="I68" s="14"/>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>253</v>
+      <c r="D69" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>255</v>
+      </c>
+      <c r="I69" s="14"/>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>255</v>
+      <c r="D70" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>257</v>
+      </c>
+      <c r="I70" s="14"/>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>151</v>
+      <c r="D71" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>258</v>
+      </c>
+      <c r="I71" s="14"/>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>259</v>
+      </c>
+      <c r="I72" s="14"/>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>2</v>
@@ -4753,477 +5146,510 @@
       <c r="F73" s="6" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="I73" s="14"/>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>148</v>
+      <c r="D74" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>262</v>
+      </c>
+      <c r="I74" s="14"/>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>155</v>
+        <v>263</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>264</v>
+      </c>
+      <c r="I75" s="14"/>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>251</v>
+      <c r="D76" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="9" t="s">
-        <v>139</v>
+        <v>266</v>
+      </c>
+      <c r="I76" s="14"/>
+    </row>
+    <row r="77" spans="1:9" hidden="1">
+      <c r="A77" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>264</v>
+        <v>1</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F77" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="9" t="s">
-        <v>139</v>
+      <c r="F77" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I77" s="14"/>
+    </row>
+    <row r="78" spans="1:9" hidden="1">
+      <c r="A78" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>266</v>
+        <v>84</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F78" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="9" t="s">
-        <v>139</v>
+      <c r="F78" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I78" s="14"/>
+    </row>
+    <row r="79" spans="1:9" hidden="1">
+      <c r="A79" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F79" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="F79" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79" s="14"/>
+    </row>
+    <row r="80" spans="1:9" hidden="1">
       <c r="A80" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>58</v>
+      </c>
+      <c r="I80" s="14"/>
+    </row>
+    <row r="81" spans="1:9" hidden="1">
       <c r="A81" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>58</v>
+      </c>
+      <c r="I81" s="14"/>
+    </row>
+    <row r="82" spans="1:9" hidden="1">
       <c r="A82" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>58</v>
+      </c>
+      <c r="I82" s="14"/>
+    </row>
+    <row r="83" spans="1:9" hidden="1">
       <c r="A83" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>132</v>
+      </c>
+      <c r="I83" s="14"/>
+    </row>
+    <row r="84" spans="1:9" hidden="1">
       <c r="A84" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>134</v>
+      </c>
+      <c r="I84" s="14"/>
+    </row>
+    <row r="85" spans="1:9" hidden="1">
       <c r="A85" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>136</v>
+      </c>
+      <c r="I85" s="14"/>
+    </row>
+    <row r="86" spans="1:9" hidden="1">
       <c r="A86" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>234</v>
+      </c>
+      <c r="I86" s="14"/>
+    </row>
+    <row r="87" spans="1:9" hidden="1">
       <c r="A87" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="I87" s="14"/>
+    </row>
+    <row r="88" spans="1:9" hidden="1">
       <c r="A88" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>236</v>
+      </c>
+      <c r="I88" s="14"/>
+    </row>
+    <row r="89" spans="1:9" hidden="1">
       <c r="A89" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>238</v>
+      </c>
+      <c r="I89" s="14"/>
+    </row>
+    <row r="90" spans="1:9" hidden="1">
       <c r="A90" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E92" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="I90" s="14"/>
+    </row>
+    <row r="91" spans="1:9" hidden="1">
+      <c r="A91" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I91" s="14"/>
+    </row>
+    <row r="92" spans="1:9" hidden="1">
+      <c r="A92" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I92" s="14"/>
+    </row>
+    <row r="93" spans="1:9" hidden="1">
+      <c r="A93" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I93" s="14"/>
+    </row>
+    <row r="94" spans="1:9" hidden="1">
       <c r="A94" s="10" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>181</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I94" s="14"/>
+    </row>
+    <row r="95" spans="1:9" hidden="1">
       <c r="A95" s="10" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>183</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I95" s="14"/>
+    </row>
+    <row r="96" spans="1:9" hidden="1">
       <c r="A96" s="10" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>185</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="I96" s="14"/>
+    </row>
+    <row r="97" spans="1:9" hidden="1">
       <c r="A97" s="10" t="s">
         <v>177</v>
       </c>
@@ -5234,19 +5660,20 @@
         <v>179</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>188</v>
+      </c>
+      <c r="I97" s="14"/>
+    </row>
+    <row r="98" spans="1:9" hidden="1">
       <c r="A98" s="10" t="s">
         <v>177</v>
       </c>
@@ -5257,86 +5684,18 @@
         <v>179</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="G101" s="10" t="s">
         <v>192</v>
       </c>
+      <c r="I98" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Documentação/Planilhas/Dominio_SDS.xlsx
+++ b/Documentação/Planilhas/Dominio_SDS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="290">
   <si>
     <t>stg_cfop.dtsx</t>
   </si>
@@ -883,6 +883,12 @@
   </si>
   <si>
     <t>dim_estoque_deposito.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.ods_sige_clientes_pedidos</t>
+  </si>
+  <si>
+    <t>ods_meio_pagamento.dtsx</t>
   </si>
 </sst>
 </file>
@@ -3364,7 +3370,7 @@
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:F53"/>
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4657,7 +4663,9 @@
       <c r="H50" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I50" s="14"/>
+      <c r="I50" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="8" t="s">
@@ -4681,7 +4689,9 @@
       <c r="H51" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I51" s="14"/>
+      <c r="I51" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="8" t="s">
@@ -4705,7 +4715,9 @@
       <c r="H52" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="I52" s="14"/>
+      <c r="I52" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="8" t="s">
@@ -4726,7 +4738,12 @@
       <c r="F53" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I53" s="14"/>
+      <c r="H53" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="8" t="s">
@@ -4747,7 +4764,12 @@
       <c r="F54" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I54" s="14"/>
+      <c r="H54" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="8" t="s">
@@ -4768,7 +4790,12 @@
       <c r="F55" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="I55" s="14"/>
+      <c r="H55" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="8" t="s">
@@ -4787,9 +4814,14 @@
         <v>2</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I56" s="14"/>
+        <v>288</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="9" t="s">
@@ -4810,7 +4842,12 @@
       <c r="F57" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="I57" s="14"/>
+      <c r="H57" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="9" t="s">
@@ -4831,7 +4868,12 @@
       <c r="F58" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="I58" s="14"/>
+      <c r="H58" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="9" t="s">
@@ -4852,7 +4894,12 @@
       <c r="F59" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="I59" s="14"/>
+      <c r="H59" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="9" t="s">
@@ -4873,7 +4920,12 @@
       <c r="F60" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="I60" s="14"/>
+      <c r="H60" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="9" t="s">
@@ -4894,7 +4946,12 @@
       <c r="F61" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="I61" s="14"/>
+      <c r="H61" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="9" t="s">

--- a/Documentação/Planilhas/Dominio_SDS.xlsx
+++ b/Documentação/Planilhas/Dominio_SDS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="296">
   <si>
     <t>stg_cfop.dtsx</t>
   </si>
@@ -889,6 +889,24 @@
   </si>
   <si>
     <t>ods_meio_pagamento.dtsx</t>
+  </si>
+  <si>
+    <t>dim_condicao_pagamento.dtsx</t>
+  </si>
+  <si>
+    <t>dim_sige_fornecedor.dtsx</t>
+  </si>
+  <si>
+    <t>dim_cfop.dtsx</t>
+  </si>
+  <si>
+    <t>dim_purchase_status.dtsx</t>
+  </si>
+  <si>
+    <t>dim_purchase_order_status.dtsx</t>
+  </si>
+  <si>
+    <t>ods_canalvenda.dtsx</t>
   </si>
 </sst>
 </file>
@@ -1222,6 +1240,11 @@
         <filter val="Margin Approved_LN"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ods_margin_approved.dtsx"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6"/>
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
@@ -3370,7 +3393,7 @@
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3437,7 +3460,9 @@
       <c r="H2" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="6" t="s">
@@ -3462,7 +3487,9 @@
       <c r="H3" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="4" spans="1:9" hidden="1">
       <c r="A4" s="5" t="s">
@@ -4615,7 +4642,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49" s="8" t="s">
         <v>139</v>
       </c>
@@ -4641,7 +4668,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" hidden="1">
       <c r="A50" s="8" t="s">
         <v>139</v>
       </c>
@@ -4667,7 +4694,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" hidden="1">
       <c r="A51" s="8" t="s">
         <v>139</v>
       </c>
@@ -4693,7 +4720,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" hidden="1">
       <c r="A52" s="8" t="s">
         <v>139</v>
       </c>
@@ -4972,7 +4999,12 @@
       <c r="F62" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="I62" s="14"/>
+      <c r="H62" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="9" t="s">
@@ -5037,7 +5069,7 @@
       </c>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" hidden="1">
       <c r="A66" s="9" t="s">
         <v>139</v>
       </c>
@@ -5058,7 +5090,7 @@
       </c>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" hidden="1">
       <c r="A67" s="9" t="s">
         <v>139</v>
       </c>
@@ -5079,7 +5111,7 @@
       </c>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" hidden="1">
       <c r="A68" s="9" t="s">
         <v>139</v>
       </c>
@@ -5100,7 +5132,7 @@
       </c>
       <c r="I68" s="14"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" hidden="1">
       <c r="A69" s="9" t="s">
         <v>139</v>
       </c>
@@ -5121,7 +5153,7 @@
       </c>
       <c r="I69" s="14"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" hidden="1">
       <c r="A70" s="9" t="s">
         <v>139</v>
       </c>
@@ -5142,7 +5174,7 @@
       </c>
       <c r="I70" s="14"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" hidden="1">
       <c r="A71" s="9" t="s">
         <v>139</v>
       </c>
@@ -5163,7 +5195,7 @@
       </c>
       <c r="I71" s="14"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" hidden="1">
       <c r="A72" s="9" t="s">
         <v>139</v>
       </c>
@@ -5184,7 +5216,7 @@
       </c>
       <c r="I72" s="14"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" hidden="1">
       <c r="A73" s="9" t="s">
         <v>139</v>
       </c>
@@ -5205,7 +5237,7 @@
       </c>
       <c r="I73" s="14"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" hidden="1">
       <c r="A74" s="9" t="s">
         <v>139</v>
       </c>
@@ -5226,7 +5258,7 @@
       </c>
       <c r="I74" s="14"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" hidden="1">
       <c r="A75" s="9" t="s">
         <v>139</v>
       </c>
@@ -5247,7 +5279,7 @@
       </c>
       <c r="I75" s="14"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" hidden="1">
       <c r="A76" s="9" t="s">
         <v>139</v>
       </c>
@@ -5287,7 +5319,12 @@
       <c r="F77" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I77" s="14"/>
+      <c r="H77" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="78" spans="1:9" hidden="1">
       <c r="A78" s="5" t="s">
@@ -5308,7 +5345,12 @@
       <c r="F78" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I78" s="14"/>
+      <c r="H78" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="79" spans="1:9" hidden="1">
       <c r="A79" s="5" t="s">
@@ -5329,7 +5371,12 @@
       <c r="F79" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I79" s="14"/>
+      <c r="H79" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="80" spans="1:9" hidden="1">
       <c r="A80" s="5" t="s">
@@ -5350,7 +5397,12 @@
       <c r="F80" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I80" s="14"/>
+      <c r="H80" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="81" spans="1:9" hidden="1">
       <c r="A81" s="5" t="s">
@@ -5371,7 +5423,12 @@
       <c r="F81" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I81" s="14"/>
+      <c r="H81" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="82" spans="1:9" hidden="1">
       <c r="A82" s="5" t="s">
@@ -5392,7 +5449,12 @@
       <c r="F82" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I82" s="14"/>
+      <c r="H82" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="83" spans="1:9" hidden="1">
       <c r="A83" s="5" t="s">
@@ -5413,7 +5475,12 @@
       <c r="F83" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I83" s="14"/>
+      <c r="H83" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="84" spans="1:9" hidden="1">
       <c r="A84" s="5" t="s">
@@ -5434,7 +5501,12 @@
       <c r="F84" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I84" s="14"/>
+      <c r="H84" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="85" spans="1:9" hidden="1">
       <c r="A85" s="5" t="s">
@@ -5455,7 +5527,12 @@
       <c r="F85" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I85" s="14"/>
+      <c r="H85" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="86" spans="1:9" hidden="1">
       <c r="A86" s="5" t="s">
@@ -5476,7 +5553,12 @@
       <c r="F86" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="I86" s="14"/>
+      <c r="H86" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="87" spans="1:9" hidden="1">
       <c r="A87" s="5" t="s">
@@ -5497,7 +5579,12 @@
       <c r="F87" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="I87" s="14"/>
+      <c r="H87" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="88" spans="1:9" hidden="1">
       <c r="A88" s="5" t="s">
@@ -5518,7 +5605,12 @@
       <c r="F88" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I88" s="14"/>
+      <c r="H88" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="89" spans="1:9" hidden="1">
       <c r="A89" s="5" t="s">
@@ -5539,7 +5631,12 @@
       <c r="F89" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I89" s="14"/>
+      <c r="H89" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="90" spans="1:9" hidden="1">
       <c r="A90" s="5" t="s">
@@ -5560,7 +5657,12 @@
       <c r="F90" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I90" s="14"/>
+      <c r="H90" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="91" spans="1:9" hidden="1">
       <c r="A91" s="10" t="s">

--- a/Documentação/Planilhas/Dominio_SDS.xlsx
+++ b/Documentação/Planilhas/Dominio_SDS.xlsx
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dominios SDS '!$A$1:$F$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dominios SDS 20140910'!$A$1:$F$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Dominios SDS 20140910'!$A$1:$F$99</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="309">
   <si>
     <t>stg_cfop.dtsx</t>
   </si>
@@ -907,6 +907,45 @@
   </si>
   <si>
     <t>ods_canalvenda.dtsx</t>
+  </si>
+  <si>
+    <t>dim_date.dtsx</t>
+  </si>
+  <si>
+    <t>dim_type_fat.dtsx</t>
+  </si>
+  <si>
+    <t>dim_origin.dtsx</t>
+  </si>
+  <si>
+    <t>dim_meio_pagamento.dtsx</t>
+  </si>
+  <si>
+    <t>dim_order_status.dtsx</t>
+  </si>
+  <si>
+    <t>dim_endereco.dtsx</t>
+  </si>
+  <si>
+    <t>dim_terceiro_corporativo.dtsx</t>
+  </si>
+  <si>
+    <t>dim_canal_venda.dtsx</t>
+  </si>
+  <si>
+    <t>dbo.dim_unidade_negocio</t>
+  </si>
+  <si>
+    <t>dim_unidade_negocio.dtsx</t>
+  </si>
+  <si>
+    <t>dim_vendedor.dtsx</t>
+  </si>
+  <si>
+    <t>dim_tipo_cliente.dtsx</t>
+  </si>
+  <si>
+    <t>dim_campanha.dtsx</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1020,6 +1059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1233,18 +1273,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:I98" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I98">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Margin Approved_LN"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="ods_margin_approved.dtsx"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:I99" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I99">
+    <filterColumn colId="0"/>
+    <filterColumn colId="1"/>
     <filterColumn colId="6"/>
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
@@ -3390,11 +3422,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -3438,7 +3468,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>195</v>
       </c>
@@ -3464,7 +3494,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
         <v>195</v>
       </c>
@@ -3491,7 +3521,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>101</v>
       </c>
@@ -3517,7 +3547,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>101</v>
       </c>
@@ -3543,7 +3573,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>101</v>
       </c>
@@ -3569,7 +3599,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>101</v>
       </c>
@@ -3595,7 +3625,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>101</v>
       </c>
@@ -3621,7 +3651,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>101</v>
       </c>
@@ -3647,7 +3677,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>101</v>
       </c>
@@ -3673,7 +3703,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1">
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>101</v>
       </c>
@@ -3699,7 +3729,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1">
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>101</v>
       </c>
@@ -3725,7 +3755,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1">
+    <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
         <v>101</v>
       </c>
@@ -3751,7 +3781,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
         <v>101</v>
       </c>
@@ -3777,7 +3807,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
         <v>101</v>
       </c>
@@ -3803,7 +3833,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
         <v>101</v>
       </c>
@@ -3829,7 +3859,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1">
+    <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
         <v>101</v>
       </c>
@@ -3856,7 +3886,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1">
+    <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
         <v>102</v>
       </c>
@@ -3882,7 +3912,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1">
+    <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
         <v>102</v>
       </c>
@@ -3908,7 +3938,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1">
+    <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
         <v>102</v>
       </c>
@@ -3934,7 +3964,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1">
+    <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
         <v>102</v>
       </c>
@@ -3960,7 +3990,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
         <v>102</v>
       </c>
@@ -3986,7 +4016,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1">
+    <row r="23" spans="1:9">
       <c r="A23" s="5" t="s">
         <v>102</v>
       </c>
@@ -4012,7 +4042,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1">
+    <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
         <v>102</v>
       </c>
@@ -4038,7 +4068,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1">
+    <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
         <v>102</v>
       </c>
@@ -4064,7 +4094,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1">
+    <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
         <v>102</v>
       </c>
@@ -4090,7 +4120,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1">
+    <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
         <v>102</v>
       </c>
@@ -4116,7 +4146,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1">
+    <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
         <v>102</v>
       </c>
@@ -4142,7 +4172,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1">
+    <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
         <v>102</v>
       </c>
@@ -4168,7 +4198,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1">
+    <row r="30" spans="1:9">
       <c r="A30" s="5" t="s">
         <v>102</v>
       </c>
@@ -4194,7 +4224,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1">
+    <row r="31" spans="1:9">
       <c r="A31" s="5" t="s">
         <v>102</v>
       </c>
@@ -4220,7 +4250,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1">
+    <row r="32" spans="1:9">
       <c r="A32" s="5" t="s">
         <v>102</v>
       </c>
@@ -4246,7 +4276,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1">
+    <row r="33" spans="1:9">
       <c r="A33" s="5" t="s">
         <v>102</v>
       </c>
@@ -4272,7 +4302,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1">
+    <row r="34" spans="1:9">
       <c r="A34" s="5" t="s">
         <v>102</v>
       </c>
@@ -4298,7 +4328,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1">
+    <row r="35" spans="1:9">
       <c r="A35" s="7" t="s">
         <v>117</v>
       </c>
@@ -4319,7 +4349,7 @@
       </c>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="1:9" hidden="1">
+    <row r="36" spans="1:9">
       <c r="A36" s="7" t="s">
         <v>117</v>
       </c>
@@ -4340,7 +4370,7 @@
       </c>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="1:9" hidden="1">
+    <row r="37" spans="1:9">
       <c r="A37" s="7" t="s">
         <v>117</v>
       </c>
@@ -4361,7 +4391,7 @@
       </c>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="1:9" hidden="1">
+    <row r="38" spans="1:9">
       <c r="A38" s="7" t="s">
         <v>117</v>
       </c>
@@ -4382,7 +4412,7 @@
       </c>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" spans="1:9" hidden="1">
+    <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
         <v>121</v>
       </c>
@@ -4408,7 +4438,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1">
+    <row r="40" spans="1:9">
       <c r="A40" s="5" t="s">
         <v>121</v>
       </c>
@@ -4434,7 +4464,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1">
+    <row r="41" spans="1:9">
       <c r="A41" s="5" t="s">
         <v>121</v>
       </c>
@@ -4460,7 +4490,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1">
+    <row r="42" spans="1:9">
       <c r="A42" s="5" t="s">
         <v>121</v>
       </c>
@@ -4486,7 +4516,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1">
+    <row r="43" spans="1:9">
       <c r="A43" s="5" t="s">
         <v>121</v>
       </c>
@@ -4512,7 +4542,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1">
+    <row r="44" spans="1:9">
       <c r="A44" s="5" t="s">
         <v>121</v>
       </c>
@@ -4538,7 +4568,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1">
+    <row r="45" spans="1:9">
       <c r="A45" s="5" t="s">
         <v>121</v>
       </c>
@@ -4564,7 +4594,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1">
+    <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
         <v>121</v>
       </c>
@@ -4590,7 +4620,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1">
+    <row r="47" spans="1:9">
       <c r="A47" s="5" t="s">
         <v>121</v>
       </c>
@@ -4616,7 +4646,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1">
+    <row r="48" spans="1:9">
       <c r="A48" s="5" t="s">
         <v>121</v>
       </c>
@@ -4642,7 +4672,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1">
+    <row r="49" spans="1:9">
       <c r="A49" s="8" t="s">
         <v>139</v>
       </c>
@@ -4668,7 +4698,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1">
+    <row r="50" spans="1:9">
       <c r="A50" s="8" t="s">
         <v>139</v>
       </c>
@@ -4694,7 +4724,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1">
+    <row r="51" spans="1:9">
       <c r="A51" s="8" t="s">
         <v>139</v>
       </c>
@@ -4720,7 +4750,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1">
+    <row r="52" spans="1:9">
       <c r="A52" s="8" t="s">
         <v>139</v>
       </c>
@@ -5025,7 +5055,12 @@
       <c r="F63" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="I63" s="14"/>
+      <c r="H63" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="9" t="s">
@@ -5046,7 +5081,12 @@
       <c r="F64" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I64" s="14"/>
+      <c r="H64" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="9" t="s">
@@ -5067,9 +5107,14 @@
       <c r="F65" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="I65" s="14"/>
-    </row>
-    <row r="66" spans="1:9" hidden="1">
+      <c r="H65" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="9" t="s">
         <v>139</v>
       </c>
@@ -5088,9 +5133,14 @@
       <c r="F66" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="I66" s="14"/>
-    </row>
-    <row r="67" spans="1:9" hidden="1">
+      <c r="H66" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="9" t="s">
         <v>139</v>
       </c>
@@ -5109,9 +5159,14 @@
       <c r="F67" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="I67" s="14"/>
-    </row>
-    <row r="68" spans="1:9" hidden="1">
+      <c r="H67" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="9" t="s">
         <v>139</v>
       </c>
@@ -5130,9 +5185,14 @@
       <c r="F68" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="I68" s="14"/>
-    </row>
-    <row r="69" spans="1:9" hidden="1">
+      <c r="H68" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="9" t="s">
         <v>139</v>
       </c>
@@ -5151,9 +5211,14 @@
       <c r="F69" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="I69" s="14"/>
-    </row>
-    <row r="70" spans="1:9" hidden="1">
+      <c r="H69" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="9" t="s">
         <v>139</v>
       </c>
@@ -5172,9 +5237,14 @@
       <c r="F70" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="I70" s="14"/>
-    </row>
-    <row r="71" spans="1:9" hidden="1">
+      <c r="H70" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="9" t="s">
         <v>139</v>
       </c>
@@ -5193,9 +5263,14 @@
       <c r="F71" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="I71" s="14"/>
-    </row>
-    <row r="72" spans="1:9" hidden="1">
+      <c r="H71" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="9" t="s">
         <v>139</v>
       </c>
@@ -5214,9 +5289,14 @@
       <c r="F72" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="I72" s="14"/>
-    </row>
-    <row r="73" spans="1:9" hidden="1">
+      <c r="H72" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="9" t="s">
         <v>139</v>
       </c>
@@ -5235,9 +5315,14 @@
       <c r="F73" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="I73" s="14"/>
-    </row>
-    <row r="74" spans="1:9" hidden="1">
+      <c r="H73" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="9" t="s">
         <v>139</v>
       </c>
@@ -5247,18 +5332,24 @@
       <c r="C74" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>261</v>
+      <c r="D74" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F74" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="I74" s="14"/>
-    </row>
-    <row r="75" spans="1:9" hidden="1">
+      <c r="F74" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="9" t="s">
         <v>139</v>
       </c>
@@ -5269,17 +5360,22 @@
         <v>2</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="I75" s="14"/>
-    </row>
-    <row r="76" spans="1:9" hidden="1">
+        <v>262</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="9" t="s">
         <v>139</v>
       </c>
@@ -5289,44 +5385,49 @@
       <c r="C76" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F76" s="6" t="s">
+      <c r="E77" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="I76" s="14"/>
-    </row>
-    <row r="77" spans="1:9" hidden="1">
-      <c r="A77" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="H77" s="5" t="s">
-        <v>126</v>
+        <v>308</v>
       </c>
       <c r="I77" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1">
+    <row r="78" spans="1:9">
       <c r="A78" s="5" t="s">
         <v>127</v>
       </c>
@@ -5334,10 +5435,10 @@
         <v>231</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>2</v>
@@ -5352,7 +5453,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1">
+    <row r="79" spans="1:9">
       <c r="A79" s="5" t="s">
         <v>127</v>
       </c>
@@ -5360,25 +5461,25 @@
         <v>231</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="I79" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1">
+    <row r="80" spans="1:9">
       <c r="A80" s="5" t="s">
         <v>127</v>
       </c>
@@ -5389,22 +5490,22 @@
         <v>1</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I80" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1">
+    <row r="81" spans="1:9">
       <c r="A81" s="5" t="s">
         <v>127</v>
       </c>
@@ -5415,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>2</v>
@@ -5430,7 +5531,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1">
+    <row r="82" spans="1:9">
       <c r="A82" s="5" t="s">
         <v>127</v>
       </c>
@@ -5441,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>2</v>
@@ -5456,33 +5557,33 @@
         <v>275</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1">
+    <row r="83" spans="1:9">
       <c r="A83" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="H83" s="5" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="I83" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1">
+    <row r="84" spans="1:9">
       <c r="A84" s="5" t="s">
         <v>127</v>
       </c>
@@ -5493,22 +5594,22 @@
         <v>2</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="I84" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1">
+    <row r="85" spans="1:9">
       <c r="A85" s="5" t="s">
         <v>127</v>
       </c>
@@ -5519,48 +5620,48 @@
         <v>2</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="I85" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1">
+    <row r="86" spans="1:9">
       <c r="A86" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>234</v>
+        <v>136</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>290</v>
+        <v>135</v>
       </c>
       <c r="I86" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1">
+    <row r="87" spans="1:9">
       <c r="A87" s="5" t="s">
         <v>127</v>
       </c>
@@ -5571,22 +5672,22 @@
         <v>2</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I87" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1">
+    <row r="88" spans="1:9">
       <c r="A88" s="5" t="s">
         <v>127</v>
       </c>
@@ -5597,22 +5698,22 @@
         <v>2</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I88" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1">
+    <row r="89" spans="1:9">
       <c r="A89" s="5" t="s">
         <v>127</v>
       </c>
@@ -5620,25 +5721,25 @@
         <v>233</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I89" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1">
+    <row r="90" spans="1:9">
       <c r="A90" s="5" t="s">
         <v>127</v>
       </c>
@@ -5649,118 +5750,120 @@
         <v>1</v>
       </c>
       <c r="D90" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F90" s="5" t="s">
+      <c r="E91" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H91" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="I90" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" hidden="1">
-      <c r="A91" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I91" s="14"/>
-    </row>
-    <row r="92" spans="1:9" hidden="1">
+      <c r="I91" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
       <c r="D92" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E92" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>171</v>
-      </c>
       <c r="G92" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I92" s="14"/>
     </row>
-    <row r="93" spans="1:9" hidden="1">
+    <row r="93" spans="1:9">
       <c r="A93" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B93" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I93" s="14"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="10" t="s">
+      <c r="C94" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E93" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F93" s="10" t="s">
+      <c r="E94" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="G94" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="I93" s="14"/>
-    </row>
-    <row r="94" spans="1:9" hidden="1">
-      <c r="A94" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>176</v>
-      </c>
       <c r="I94" s="14"/>
     </row>
-    <row r="95" spans="1:9" hidden="1">
+    <row r="95" spans="1:9">
       <c r="A95" s="10" t="s">
         <v>177</v>
       </c>
@@ -5771,20 +5874,20 @@
         <v>179</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I95" s="14"/>
     </row>
-    <row r="96" spans="1:9" hidden="1">
+    <row r="96" spans="1:9">
       <c r="A96" s="10" t="s">
         <v>177</v>
       </c>
@@ -5795,20 +5898,20 @@
         <v>179</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I96" s="14"/>
     </row>
-    <row r="97" spans="1:9" hidden="1">
+    <row r="97" spans="1:9">
       <c r="A97" s="10" t="s">
         <v>177</v>
       </c>
@@ -5819,20 +5922,20 @@
         <v>179</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I97" s="14"/>
     </row>
-    <row r="98" spans="1:9" hidden="1">
+    <row r="98" spans="1:9">
       <c r="A98" s="10" t="s">
         <v>177</v>
       </c>
@@ -5843,18 +5946,42 @@
         <v>179</v>
       </c>
       <c r="D98" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="I98" s="14"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D99" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E98" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F98" s="10" t="s">
+      <c r="E99" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="G98" s="10" t="s">
+      <c r="G99" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="I98" s="14"/>
+      <c r="I99" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
